--- a/Development/SOFTestAutomation/src/test/resources/testDataExcelFiles/AccountsTestData.xlsx
+++ b/Development/SOFTestAutomation/src/test/resources/testDataExcelFiles/AccountsTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="3675" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="3675" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="270">
   <si>
     <t>superuser</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Profile ID</t>
-  </si>
-  <si>
-    <t>test1 - TEST</t>
   </si>
   <si>
     <t>Account Status</t>
@@ -773,9 +770,6 @@
     <t>Pharmacy</t>
   </si>
   <si>
-    <t>ByRegionDetailsNewRegionNewCustomerAddTerminalSaveSuccess</t>
-  </si>
-  <si>
     <t>ByRegionDetailsExistingRegionAddTerminalSaveSuccess</t>
   </si>
   <si>
@@ -843,6 +837,30 @@
   </si>
   <si>
     <t>Sub account already exist</t>
+  </si>
+  <si>
+    <t>PROF1 - PROF1</t>
+  </si>
+  <si>
+    <t>ByRegionDetailsNewRegionNewCustomerAddTerminalMegaSaveSuccess</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>No merchant Exist With The Given Code</t>
+  </si>
+  <si>
+    <t>New primary Account</t>
   </si>
 </sst>
 </file>
@@ -1339,24 +1357,24 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4">
         <v>279647</v>
@@ -1364,10 +1382,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1379,10 +1397,10 @@
       </c>
       <c r="D3" s="4"/>
       <c r="G3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1391,30 +1409,30 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1425,32 +1443,32 @@
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4">
         <v>279647</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1461,7 +1479,7 @@
         <v>279204</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1488,28 +1506,28 @@
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -1520,10 +1538,10 @@
     </row>
     <row r="2" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -1531,10 +1549,10 @@
         <v>279647</v>
       </c>
       <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
         <v>138</v>
-      </c>
-      <c r="K3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -1542,10 +1560,10 @@
         <v>1234</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1553,21 +1571,21 @@
         <v>273098</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1575,54 +1593,54 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1630,7 +1648,7 @@
         <v>7890876778</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1638,10 +1656,10 @@
         <v>1234</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1671,37 +1689,37 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>55</v>
@@ -1718,22 +1736,22 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>10000</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -1744,34 +1762,34 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
         <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
       </c>
       <c r="F3">
         <v>10000</v>
       </c>
       <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
         <v>147</v>
-      </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>148</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -1782,25 +1800,25 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4">
         <v>10000</v>
       </c>
       <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
         <v>146</v>
       </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1811,28 +1829,28 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>10000</v>
       </c>
       <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
         <v>146</v>
       </c>
-      <c r="H5" t="s">
-        <v>147</v>
-      </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5">
         <v>13842</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1859,22 +1877,22 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>55</v>
@@ -1888,7 +1906,7 @@
         <v>283464</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>100000</v>
@@ -1897,10 +1915,10 @@
         <v>1000</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1911,7 +1929,7 @@
         <v>-100</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1919,10 +1937,10 @@
         <v>283464</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1930,13 +1948,13 @@
         <v>283464</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1953,10 +1971,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1990,13 +2008,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
@@ -2008,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>55</v>
@@ -2025,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2034,7 +2052,7 @@
         <v>1234</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -2045,13 +2063,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3">
         <v>1234</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2062,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>1234</v>
@@ -2071,7 +2089,7 @@
         <v>1234</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2082,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2091,7 +2109,7 @@
         <v>89754042156</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2102,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2111,7 +2129,7 @@
         <v>1234</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2122,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2131,7 +2149,7 @@
         <v>1234</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2164,13 +2182,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
@@ -2179,7 +2197,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -2196,10 +2214,10 @@
         <v>51119</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2207,13 +2225,13 @@
         <v>283306</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -2224,7 +2242,7 @@
         <v>100100100</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2232,10 +2250,10 @@
         <v>283306</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2243,13 +2261,13 @@
         <v>283306</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2257,10 +2275,10 @@
         <v>283306</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2268,10 +2286,10 @@
         <v>283306</v>
       </c>
       <c r="J8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" t="s">
         <v>158</v>
-      </c>
-      <c r="K8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2279,10 +2297,10 @@
         <v>283306</v>
       </c>
       <c r="J9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" t="s">
         <v>161</v>
-      </c>
-      <c r="K9" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2327,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>55</v>
@@ -2326,13 +2344,13 @@
         <v>283308</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2340,13 +2358,13 @@
         <v>283308</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -2354,13 +2372,13 @@
         <v>283308</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2368,10 +2386,10 @@
         <v>283310</v>
       </c>
       <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
         <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2384,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,19 +2416,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>55</v>
@@ -2424,7 +2442,7 @@
         <v>283266</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>15448</v>
@@ -2436,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -2453,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -2461,7 +2479,7 @@
         <v>123456</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2474,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2537,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>26</v>
@@ -2537,13 +2555,13 @@
         <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>32</v>
@@ -2552,13 +2570,13 @@
         <v>33</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>34</v>
@@ -2585,7 +2603,7 @@
         <v>41</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>42</v>
@@ -2612,15 +2630,15 @@
         <v>45</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -2629,13 +2647,13 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -2650,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N2" t="s">
         <v>7</v>
@@ -2665,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U2" t="s">
         <v>8</v>
@@ -2692,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD2" s="3">
         <v>1266068877</v>
@@ -2709,22 +2727,22 @@
       <c r="AH2">
         <v>1</v>
       </c>
-      <c r="AI2" t="s">
-        <v>60</v>
+      <c r="AI2" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="AJ2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="AK2" t="s">
         <v>9</v>
       </c>
       <c r="AM2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -2733,7 +2751,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -2751,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N3" t="s">
         <v>7</v>
@@ -2766,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U3" t="s">
         <v>8</v>
@@ -2778,21 +2796,21 @@
         <v>10000</v>
       </c>
       <c r="AC3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AK3" t="s">
         <v>9</v>
       </c>
       <c r="AM3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -2813,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -2825,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U4" t="s">
         <v>8</v>
@@ -2838,10 +2856,10 @@
       </c>
       <c r="AD4" s="3"/>
       <c r="AJ4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -2864,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N5" t="s">
         <v>7</v>
@@ -2879,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U5" t="s">
         <v>8</v>
@@ -2889,15 +2907,15 @@
       </c>
       <c r="AD5" s="3"/>
       <c r="AJ5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -2912,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N6" t="s">
         <v>7</v>
@@ -2927,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U6" t="s">
         <v>8</v>
@@ -2954,19 +2972,19 @@
         <v>67896789</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AJ6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2987,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
@@ -2999,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U7" t="s">
         <v>8</v>
@@ -3011,18 +3029,18 @@
         <v>10000</v>
       </c>
       <c r="AJ7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AK7" t="s">
         <v>9</v>
       </c>
       <c r="AM7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -3043,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
@@ -3055,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U8" t="s">
         <v>8</v>
@@ -3067,13 +3085,13 @@
         <v>10000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3084,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,10 +3114,14 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3119,41 +3141,145 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2">
+        <v>264</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4">
         <v>66547</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>274145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3178,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>22</v>
@@ -3193,10 +3319,10 @@
         <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>28</v>
@@ -3211,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>34</v>
@@ -3223,7 +3349,7 @@
         <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>44</v>
@@ -3232,10 +3358,10 @@
         <v>53</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>55</v>
@@ -3258,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="X2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -3284,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -3298,7 +3424,7 @@
         <v>12</v>
       </c>
       <c r="W4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -3309,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="W5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -3323,10 +3449,10 @@
         <v>12</v>
       </c>
       <c r="W6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -3334,16 +3460,16 @@
         <v>283556</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -3354,10 +3480,10 @@
         <v>6</v>
       </c>
       <c r="W8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
@@ -3368,10 +3494,10 @@
         <v>58</v>
       </c>
       <c r="W9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -3379,13 +3505,13 @@
         <v>283556</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
@@ -3396,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="W11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3539,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,16 +3553,16 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>34</v>
@@ -3448,63 +3574,63 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -3516,7 +3642,7 @@
         <v>10000</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -3525,30 +3651,30 @@
         <v>5010</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -3560,7 +3686,7 @@
         <v>10000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -3569,33 +3695,33 @@
         <v>5010</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V3" t="s">
         <v>9</v>
       </c>
       <c r="W3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -3610,43 +3736,43 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
-        <v>74</v>
-      </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="4"/>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V4" t="s">
         <v>9</v>
       </c>
       <c r="W4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -3658,43 +3784,43 @@
         <v>10000</v>
       </c>
       <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5" s="4"/>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
         <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -3706,7 +3832,7 @@
         <v>10000</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -3715,33 +3841,33 @@
         <v>5010</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -3756,26 +3882,26 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7" s="4"/>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3786,123 +3912,129 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="75.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="3" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="75.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="10">
-        <v>283715</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="10">
+        <v>999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>99998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="10">
-        <v>283715</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="10">
-        <v>283715</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="10">
-        <v>283715</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
+      <c r="B5">
+        <v>99998</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="10">
-        <v>283715</v>
+        <v>999999</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="10">
-        <v>283715</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
+        <v>999999</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3929,39 +4061,39 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>708351</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3969,7 +4101,7 @@
         <v>708351</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
@@ -3977,109 +4109,109 @@
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4087,10 +4219,10 @@
         <v>808351</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,7 +4230,7 @@
         <v>708351</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4114,7 +4246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4143,19 +4275,19 @@
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -4170,7 +4302,7 @@
         <v>274263</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2">
         <v>5656</v>
@@ -4179,21 +4311,21 @@
         <v>5656</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3">
         <v>274263</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3">
         <v>1234</v>
@@ -4202,18 +4334,18 @@
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>274263</v>
@@ -4225,21 +4357,21 @@
         <v>5656</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5">
         <v>274263</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>5656</v>
@@ -4248,33 +4380,33 @@
         <v>1234</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6">
         <v>274263</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4420,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,13 +4438,13 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,10 +4452,10 @@
         <v>276754</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4331,10 +4463,10 @@
         <v>279528</v>
       </c>
       <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
         <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4342,10 +4474,10 @@
         <v>282668</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,10 +4485,10 @@
         <v>282566</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,35 +4496,35 @@
         <v>274605</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7">
         <v>274605</v>
       </c>
       <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
         <v>126</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8">
         <v>274605</v>
@@ -4401,18 +4533,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
